--- a/analytics_csv/yearly_data.xlsx
+++ b/analytics_csv/yearly_data.xlsx
@@ -746,25 +746,25 @@
         <v>45291</v>
       </c>
       <c r="B12" t="n">
-        <v>26621.79515864218</v>
+        <v>26700.22687126049</v>
       </c>
       <c r="C12" t="n">
-        <v>34502.82089154515</v>
+        <v>34667.77936054675</v>
       </c>
       <c r="D12" t="n">
         <v>16625.08055070908</v>
       </c>
       <c r="E12" t="n">
-        <v>34089.57587222225</v>
+        <v>34667.77936054675</v>
       </c>
       <c r="F12" t="n">
         <v>16547.91439787154</v>
       </c>
       <c r="G12" t="n">
-        <v>17541.66147435071</v>
+        <v>18119.86496267521</v>
       </c>
       <c r="H12" t="n">
-        <v>106.0052708310299</v>
+        <v>109.4993878201706</v>
       </c>
     </row>
   </sheetData>
